--- a/data/combined_adenylate_forming_training_set_20192803.xlsx
+++ b/data/combined_adenylate_forming_training_set_20192803.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A654A6-8DCF-6742-A5A5-362A4166C162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BBF35B-E795-E74C-B5DF-A78590BDE80A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="24640" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24800" yWindow="1800" windowWidth="24640" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_adenylate_forming_trai" sheetId="1" r:id="rId1"/>
@@ -13068,11 +13068,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="F452" sqref="F452:F609"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="62" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
